--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3890942.38439761</v>
+        <v>3895881.647246643</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7674126.790167706</v>
+        <v>7674126.790167707</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>71.64540509163452</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0934821937306</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>89.06613335611783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>132.997194893274</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.1086023358206</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>317.0781683602</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>60.46179076613161</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>253.7799161774105</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1537278750036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>179.8088876098628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>207.6951870029955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>161.4046520073175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.12997531810252</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.0984470696759</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>193.486767012043</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>20.82998177290624</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>82.20191370677044</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.31285845810835</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.823100673951</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.860583733539</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D2" t="n">
-        <v>857.5948851267888</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E2" t="n">
-        <v>471.8066325285445</v>
+        <v>140.2354819339296</v>
       </c>
       <c r="F2" t="n">
-        <v>464.8611317793411</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>450.937727717932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694738</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037878</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>807.393450832883</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>396.4075460432754</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018223</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4713,64 +4713,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563625</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8844025563625</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>128.938901807159</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>115.0154977457499</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>818.8674955888084</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>564.1830073829216</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>564.1830073829216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>564.1830073829216</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>237.776412546148</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5539,7 +5539,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5715,10 +5715,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822458</v>
@@ -5755,22 +5755,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,19 +5831,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384826</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188996</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>709.4512536188996</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6426,10 +6426,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6554,10 +6554,10 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.7466045204288</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.553384645499</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>875.4247458590575</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>875.4247458590575</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>875.4247458590575</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6859735286132</v>
+        <v>875.4247458590575</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.6859735286132</v>
+        <v>875.4247458590575</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1192.399988319684</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>903.2713495332426</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>648.5868613273558</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,13 +6922,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7131,16 +7131,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>291.7839189057833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7414,25 +7414,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45743622116686</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43092547709122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>106.7141107267282</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>18.01446838604167</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.70200486383477</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>88.44911398871332</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>28.06079404634627</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>231.3076615509218</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>64.23204893979873</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.519121723829</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="15">
@@ -26316,13 +26316,13 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016472</v>
@@ -26331,28 +26331,28 @@
         <v>742955.2135016473</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.213501647</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="J2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="L2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="N2" t="n">
-        <v>742955.213501647</v>
-      </c>
       <c r="O2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="P2" t="n">
         <v>742955.2135016475</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26444,10 +26444,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230234</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26472,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,16 +26496,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67328.05322871127</v>
+        <v>-67328.05322871113</v>
       </c>
       <c r="C6" t="n">
-        <v>522639.8259858331</v>
+        <v>522639.8259858334</v>
       </c>
       <c r="D6" t="n">
-        <v>522639.8259858331</v>
+        <v>522639.8259858333</v>
       </c>
       <c r="E6" t="n">
-        <v>95529.71426401072</v>
+        <v>96406.84639775986</v>
       </c>
       <c r="F6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="G6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="H6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.882874656</v>
       </c>
       <c r="I6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.882874656</v>
       </c>
       <c r="J6" t="n">
-        <v>444266.531548314</v>
+        <v>445143.6636820633</v>
       </c>
       <c r="K6" t="n">
-        <v>620689.7507409066</v>
+        <v>621566.8828746565</v>
       </c>
       <c r="L6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="M6" t="n">
-        <v>485888.7355070694</v>
+        <v>486765.8676408192</v>
       </c>
       <c r="N6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.882874656</v>
       </c>
       <c r="O6" t="n">
-        <v>620689.7507409068</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="P6" t="n">
-        <v>620689.7507409068</v>
+        <v>621566.8828746564</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26770,10 +26770,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>335.2306406500769</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>82.8292905706266</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>59.54933966209452</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>153.525803443317</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>226.6755676849744</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>23.98522015752656</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>48.19472341080757</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>263.4609819982255</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758265</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35020,19 +35020,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>610.8663700188198</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
